--- a/Meteorological Data/Average Relative Humidity Daily.xlsx
+++ b/Meteorological Data/Average Relative Humidity Daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/Meteorological Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_37EDB1F1DA7AE08F6E38F4F7495DCE3A8747EF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D8F2EC0-AC52-4DE0-A093-02D89D4300C8}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_37EDB1F1DA7AE08F6E38F4F7495DCE3A8747EF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0619C47E-9718-48BE-A1D5-4EEBE95648D1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -98,7 +98,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="L153" sqref="L153"/>
+      <selection activeCell="F360" sqref="F360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3339,14 +3339,6 @@
         <v>68.233891666666665</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="2">
-        <v>45170</v>
-      </c>
-      <c r="B367">
-        <v>74.432500000000005</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
